--- a/doc/A렌트카_개발가이드1.0.xlsx
+++ b/doc/A렌트카_개발가이드1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11595" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11595" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="개발환경" sheetId="5" r:id="rId1"/>
@@ -32,9 +32,10 @@
     <sheet name="jwt인증" sheetId="30" r:id="rId18"/>
     <sheet name="세션인증" sheetId="32" r:id="rId19"/>
     <sheet name="유효성검사" sheetId="31" r:id="rId20"/>
+    <sheet name="요구사항정의서" sheetId="37" r:id="rId21"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'테이블 컬럼명'!$A$1:$M$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'테이블 컬럼명'!$A$1:$M$79</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="1354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="1391">
   <si>
     <t>개발환경</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -13393,10 +13394,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rent_cars</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>car_types</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -13912,17 +13909,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공지정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notices</t>
-  </si>
-  <si>
-    <t>response</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reviews</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -14035,10 +14021,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>author_tpye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>후기코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -14068,6 +14050,135 @@
   </si>
   <si>
     <t>inquiry_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rental_cars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목</t>
+  </si>
+  <si>
+    <t>내용</t>
+  </si>
+  <si>
+    <t>프로젝트명</t>
+  </si>
+  <si>
+    <t>고객 관리 시스템 개발 프로젝트</t>
+  </si>
+  <si>
+    <t>작성일자</t>
+  </si>
+  <si>
+    <t>작성자</t>
+  </si>
+  <si>
+    <t>홍길동, 김철수</t>
+  </si>
+  <si>
+    <t>프로젝트 목표</t>
+  </si>
+  <si>
+    <t>고객 데이터를 효율적으로 관리하고, 고객과의 상호작용 기록을 저장하여 분석할 수 있는 시스템을 구축</t>
+  </si>
+  <si>
+    <t>프로젝트 범위</t>
+  </si>
+  <si>
+    <t>고객 정보 관리, 고객 상호작용 기록, 데이터 백업 및 복구 기능, 관리자 권한 관리 기능 포함</t>
+  </si>
+  <si>
+    <t>이해관계자</t>
+  </si>
+  <si>
+    <t>- 사용자: 고객 관리 담당자</t>
+  </si>
+  <si>
+    <t>- 관리자: 시스템 관리자</t>
+  </si>
+  <si>
+    <t>- 개발 팀: 프로젝트 개발자</t>
+  </si>
+  <si>
+    <t>- 경영진: 프로젝트 예산 및 일정 검토</t>
+  </si>
+  <si>
+    <t>기능적 요구사항</t>
+  </si>
+  <si>
+    <t>1. 고객 정보 관리</t>
+  </si>
+  <si>
+    <t>- 고객의 이름, 연락처, 주소 등을 관리할 수 있어야 함</t>
+  </si>
+  <si>
+    <t>2. 상호작용 기록</t>
+  </si>
+  <si>
+    <t>- 고객과의 상담 내용, 방문 기록 등을 저장하고 조회 가능해야 함</t>
+  </si>
+  <si>
+    <t>비기능적 요구사항</t>
+  </si>
+  <si>
+    <t>1. 시스템 성능</t>
+  </si>
+  <si>
+    <t>- 모든 요청에 대해 2초 이내의 응답 시간</t>
+  </si>
+  <si>
+    <t>2. 보안</t>
+  </si>
+  <si>
+    <t>- 데이터 전송 시 SSL을 통한 암호화 적용</t>
+  </si>
+  <si>
+    <t>3. 가용성</t>
+  </si>
+  <si>
+    <t>- 시스템 가동률 99.9% 이상</t>
+  </si>
+  <si>
+    <t>제약 사항</t>
+  </si>
+  <si>
+    <t>- 시스템은 클라우드 환경에서 호스팅해야 함</t>
+  </si>
+  <si>
+    <t>- 프로젝트 일정은 6개월 내 완료</t>
+  </si>
+  <si>
+    <t>가정 및 전제 조건</t>
+  </si>
+  <si>
+    <t>- 고객 관리 담당자는 매뉴얼에 따라 시스템을 사용할 수 있음</t>
+  </si>
+  <si>
+    <t>- 클라우드 사용에 따른 별도의 보안 인프라가 구축되어 있음</t>
+  </si>
+  <si>
+    <t>성공 기준</t>
+  </si>
+  <si>
+    <t>- 고객 관리 시스템을 통해 고객과의 상호작용이 100% 기록</t>
+  </si>
+  <si>
+    <t>- 시스템 도입 후 고객 데이터 조회 속도 2배 향상</t>
+  </si>
+  <si>
+    <t>비고</t>
+  </si>
+  <si>
+    <t>기타 관련 참고 사항이나 추가 사항 기재</t>
+  </si>
+  <si>
+    <t>요구사항 정의서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>author_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14075,7 +14186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -14316,6 +14427,15 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -14346,7 +14466,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -14461,6 +14581,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -14879,7 +15008,7 @@
         <v>282</v>
       </c>
       <c r="B20" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -14895,7 +15024,7 @@
         <v>1050</v>
       </c>
       <c r="B22" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -14951,8 +15080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14998,7 +15127,7 @@
         <v>1078</v>
       </c>
       <c r="B2" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>896</v>
@@ -15022,7 +15151,7 @@
         <v>1079</v>
       </c>
       <c r="B3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>335</v>
@@ -15046,7 +15175,7 @@
         <v>1077</v>
       </c>
       <c r="B4" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>906</v>
@@ -15070,7 +15199,7 @@
         <v>1092</v>
       </c>
       <c r="B5" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>906</v>
@@ -15094,7 +15223,7 @@
         <v>1093</v>
       </c>
       <c r="B6" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>906</v>
@@ -15118,7 +15247,7 @@
         <v>1099</v>
       </c>
       <c r="B7" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>906</v>
@@ -15142,7 +15271,7 @@
         <v>1100</v>
       </c>
       <c r="B8" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>906</v>
@@ -15166,7 +15295,7 @@
         <v>1118</v>
       </c>
       <c r="B9" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>906</v>
@@ -15190,7 +15319,7 @@
         <v>1102</v>
       </c>
       <c r="B10" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>896</v>
@@ -15214,7 +15343,7 @@
         <v>1105</v>
       </c>
       <c r="B11" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>335</v>
@@ -15238,10 +15367,10 @@
         <v>1101</v>
       </c>
       <c r="B12" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D12" s="12">
         <v>4</v>
@@ -15262,7 +15391,7 @@
         <v>1103</v>
       </c>
       <c r="B13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>335</v>
@@ -15286,7 +15415,7 @@
         <v>1104</v>
       </c>
       <c r="B14" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>896</v>
@@ -15310,10 +15439,10 @@
         <v>1106</v>
       </c>
       <c r="B15" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D15" s="12">
         <v>1</v>
@@ -15334,10 +15463,10 @@
         <v>1107</v>
       </c>
       <c r="B16" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D16" s="12">
         <v>2</v>
@@ -15358,7 +15487,7 @@
         <v>1080</v>
       </c>
       <c r="B17" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>896</v>
@@ -15384,7 +15513,7 @@
         <v>1170</v>
       </c>
       <c r="B18" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>896</v>
@@ -15458,7 +15587,7 @@
         <v>1082</v>
       </c>
       <c r="B21" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>896</v>
@@ -15482,7 +15611,7 @@
         <v>1084</v>
       </c>
       <c r="B22" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>335</v>
@@ -15506,7 +15635,7 @@
         <v>1085</v>
       </c>
       <c r="B23" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>335</v>
@@ -15528,7 +15657,7 @@
         <v>1119</v>
       </c>
       <c r="B24" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>335</v>
@@ -15547,7 +15676,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>490</v>
@@ -15572,7 +15701,7 @@
         <v>1172</v>
       </c>
       <c r="B26" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>335</v>
@@ -15594,7 +15723,7 @@
         <v>1173</v>
       </c>
       <c r="B27" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>335</v>
@@ -15616,7 +15745,7 @@
         <v>1171</v>
       </c>
       <c r="B28" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>335</v>
@@ -15638,7 +15767,7 @@
         <v>1116</v>
       </c>
       <c r="B29" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>906</v>
@@ -15660,7 +15789,7 @@
         <v>1117</v>
       </c>
       <c r="B30" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>906</v>
@@ -15682,7 +15811,7 @@
         <v>1108</v>
       </c>
       <c r="B31" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>896</v>
@@ -15730,7 +15859,7 @@
         <v>1086</v>
       </c>
       <c r="B33" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>896</v>
@@ -15754,7 +15883,7 @@
         <v>1088</v>
       </c>
       <c r="B34" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>906</v>
@@ -15778,7 +15907,7 @@
         <v>1089</v>
       </c>
       <c r="B35" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>906</v>
@@ -15802,7 +15931,7 @@
         <v>1087</v>
       </c>
       <c r="B36" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>896</v>
@@ -15826,7 +15955,7 @@
         <v>1090</v>
       </c>
       <c r="B37" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>906</v>
@@ -15850,7 +15979,7 @@
         <v>1091</v>
       </c>
       <c r="B38" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>906</v>
@@ -15874,7 +16003,7 @@
         <v>1097</v>
       </c>
       <c r="B39" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>906</v>
@@ -15887,7 +16016,7 @@
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>900</v>
@@ -15898,7 +16027,7 @@
         <v>1098</v>
       </c>
       <c r="B40" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>906</v>
@@ -15911,7 +16040,7 @@
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>900</v>
@@ -15922,7 +16051,7 @@
         <v>1110</v>
       </c>
       <c r="B41" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>896</v>
@@ -16020,7 +16149,7 @@
         <v>905</v>
       </c>
       <c r="B45" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>335</v>
@@ -16044,7 +16173,7 @@
         <v>1063</v>
       </c>
       <c r="B46" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>906</v>
@@ -16068,7 +16197,7 @@
         <v>1094</v>
       </c>
       <c r="B47" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>335</v>
@@ -16092,7 +16221,7 @@
         <v>1095</v>
       </c>
       <c r="B48" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>906</v>
@@ -16116,7 +16245,7 @@
         <v>1096</v>
       </c>
       <c r="B49" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>906</v>
@@ -16140,10 +16269,10 @@
         <v>230</v>
       </c>
       <c r="B50" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D50" s="12">
         <v>1</v>
@@ -16164,10 +16293,10 @@
         <v>231</v>
       </c>
       <c r="B51" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D51" s="12">
         <v>1</v>
@@ -16188,7 +16317,7 @@
         <v>1111</v>
       </c>
       <c r="B52" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>896</v>
@@ -16212,7 +16341,7 @@
         <v>1112</v>
       </c>
       <c r="B53" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>335</v>
@@ -16236,7 +16365,7 @@
         <v>1113</v>
       </c>
       <c r="B54" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>335</v>
@@ -16260,7 +16389,7 @@
         <v>1120</v>
       </c>
       <c r="B55" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>335</v>
@@ -16284,7 +16413,7 @@
         <v>1114</v>
       </c>
       <c r="B56" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>335</v>
@@ -16332,7 +16461,7 @@
         <v>1123</v>
       </c>
       <c r="B58" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>335</v>
@@ -16356,7 +16485,7 @@
         <v>1124</v>
       </c>
       <c r="B59" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>896</v>
@@ -16380,7 +16509,7 @@
         <v>1125</v>
       </c>
       <c r="B60" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>335</v>
@@ -16743,10 +16872,10 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="12" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>906</v>
@@ -16767,234 +16896,234 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="D76" s="12"/>
       <c r="E76" s="12" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="F76" s="12"/>
       <c r="G76" s="12" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="12" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="D77" s="12">
         <v>2</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="F77" s="12"/>
       <c r="G77" s="12" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="12" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="D78" s="12">
         <v>100</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="F78" s="12"/>
       <c r="G78" s="12" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="12" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="D79" s="12">
         <v>2000</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="F79" s="12"/>
       <c r="G79" s="12" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="D80" s="12"/>
       <c r="E80" s="12" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="F80" s="12"/>
       <c r="G80" s="12" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="12" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>1345</v>
+        <v>1390</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="D81" s="12">
         <v>2</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="F81" s="12"/>
       <c r="G81" s="12" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="12" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="D82" s="12"/>
       <c r="E82" s="12" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="F82" s="12"/>
       <c r="G82" s="12" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="12" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="D83" s="12"/>
       <c r="E83" s="12" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="F83" s="12"/>
       <c r="G83" s="12" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="12" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="D84" s="12" t="s">
         <v>897</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="F84" s="12"/>
       <c r="G84" s="12" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="D85" s="12">
         <v>2</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="F85" s="12"/>
       <c r="G85" s="12" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
     </row>
   </sheetData>
@@ -18401,7 +18530,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -18421,7 +18550,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -18441,7 +18570,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -18461,7 +18590,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -20809,7 +20938,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -20857,7 +20986,7 @@
         <v>259</v>
       </c>
       <c r="B11" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -20865,7 +20994,7 @@
         <v>260</v>
       </c>
       <c r="B12" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -20873,7 +21002,7 @@
         <v>261</v>
       </c>
       <c r="B13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -20881,7 +21010,7 @@
         <v>262</v>
       </c>
       <c r="B14" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -20910,12 +21039,12 @@
     </row>
     <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="36" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -22337,6 +22466,229 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="88.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B1" s="41"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B4" s="40">
+        <v>45244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="39" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="39"/>
+      <c r="B9" s="20" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="39"/>
+      <c r="B10" s="20" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="39"/>
+      <c r="B11" s="20" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="39" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="39"/>
+      <c r="B13" s="20" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14" s="39"/>
+      <c r="B14" s="24" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="39"/>
+      <c r="B15" s="20" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" s="39" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="39"/>
+      <c r="B17" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="39"/>
+      <c r="B18" s="24" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="39"/>
+      <c r="B19" s="20" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="39"/>
+      <c r="B20" s="24" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="39"/>
+      <c r="B21" s="20" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="39" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="39"/>
+      <c r="B23" s="20" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="39" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="39"/>
+      <c r="B25" s="20" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="39" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="39"/>
+      <c r="B27" s="20" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="24" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23609,7 +23961,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -23641,7 +23993,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -23657,7 +24009,7 @@
         <v>349</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -23665,7 +24017,7 @@
         <v>349</v>
       </c>
       <c r="C15" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -23673,7 +24025,7 @@
         <v>349</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -23681,7 +24033,7 @@
         <v>349</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -23689,7 +24041,7 @@
         <v>349</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -23697,12 +24049,12 @@
         <v>349</v>
       </c>
       <c r="C19" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -23717,7 +24069,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -24249,34 +24601,34 @@
         <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>352</v>
       </c>
       <c r="D3" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E5" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="G5" s="12"/>
     </row>
@@ -24285,13 +24637,13 @@
         <v>106</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D6" t="s">
         <v>100</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="G6" s="12"/>
     </row>
@@ -24300,7 +24652,7 @@
         <v>96</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G7" s="12"/>
     </row>
@@ -24309,7 +24661,7 @@
         <v>107</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="G8" s="12"/>
     </row>
@@ -24324,16 +24676,16 @@
         <v>101</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="G10" s="12"/>
     </row>
@@ -24342,7 +24694,7 @@
         <v>102</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="G11" s="12"/>
     </row>
@@ -24357,7 +24709,7 @@
         <v>104</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="G12" s="12"/>
     </row>
@@ -24366,7 +24718,7 @@
         <v>105</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="G13" s="12"/>
     </row>
@@ -24375,16 +24727,16 @@
         <v>110</v>
       </c>
       <c r="B14" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>352</v>
       </c>
       <c r="D14" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="G14" s="12"/>
     </row>
@@ -24395,16 +24747,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D16" t="s">
         <v>1075</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="G16" s="12"/>
     </row>
@@ -24413,16 +24765,16 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C18" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D18" t="s">
         <v>1076</v>
       </c>
       <c r="E18" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="G18" s="12"/>
     </row>
@@ -24431,16 +24783,16 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D20" t="s">
         <v>109</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="G20" s="12"/>
     </row>
@@ -24449,16 +24801,16 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D22" t="s">
         <v>1269</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1270</v>
-      </c>
       <c r="E22" s="12" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="G22" s="12"/>
     </row>
@@ -24470,52 +24822,52 @@
         <v>111</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D24" t="s">
         <v>95</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="G24" s="12"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E25" s="12" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="G25" s="12"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C26" t="s">
         <v>1279</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>1280</v>
       </c>
-      <c r="D26" t="s">
-        <v>1281</v>
-      </c>
       <c r="E26" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="G26" s="12"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="G27" s="12"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>1287</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>1288</v>
       </c>
       <c r="G28" s="12"/>
     </row>
@@ -24567,10 +24919,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B217"/>
+  <dimension ref="A1:B215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -24593,7 +24945,7 @@
         <v>1175</v>
       </c>
       <c r="B2" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -24601,7 +24953,7 @@
         <v>1176</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -24609,7 +24961,7 @@
         <v>1177</v>
       </c>
       <c r="B4" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -24622,10 +24974,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B6" t="s">
         <v>1255</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -24633,7 +24985,7 @@
         <v>1179</v>
       </c>
       <c r="B7" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -24649,72 +25001,64 @@
         <v>1181</v>
       </c>
       <c r="B9" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1239</v>
+      <c r="A10" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>236</v>
+        <v>936</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>923</v>
+        <v>937</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>936</v>
+        <v>1310</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>937</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>1313</v>
+        <v>1182</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>1317</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>1314</v>
+        <v>1183</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>1315</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>1239</v>
-      </c>
+      <c r="A16"/>
+      <c r="B16"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>1316</v>
-      </c>
+      <c r="A17"/>
+      <c r="B17"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18"/>
@@ -25507,14 +25851,6 @@
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215"/>
       <c r="B215"/>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216"/>
-      <c r="B216"/>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217"/>
-      <c r="B217"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -25524,10 +25860,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M133"/>
+  <dimension ref="A1:M121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -25589,7 +25925,7 @@
         <v>1175</v>
       </c>
       <c r="B2" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C2" t="s">
         <v>1078</v>
@@ -25633,7 +25969,7 @@
         <v>1175</v>
       </c>
       <c r="B3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C3" t="s">
         <v>1077</v>
@@ -25671,7 +26007,7 @@
         <v>1175</v>
       </c>
       <c r="B4" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C4" t="s">
         <v>1079</v>
@@ -25709,7 +26045,7 @@
         <v>1175</v>
       </c>
       <c r="B5" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C5" t="s">
         <v>1092</v>
@@ -25747,7 +26083,7 @@
         <v>1175</v>
       </c>
       <c r="B6" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C6" t="s">
         <v>1093</v>
@@ -25785,7 +26121,7 @@
         <v>1175</v>
       </c>
       <c r="B7" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C7" t="s">
         <v>1099</v>
@@ -25823,7 +26159,7 @@
         <v>1175</v>
       </c>
       <c r="B8" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C8" t="s">
         <v>1100</v>
@@ -25861,7 +26197,7 @@
         <v>1175</v>
       </c>
       <c r="B9" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C9" t="s">
         <v>1118</v>
@@ -25899,7 +26235,7 @@
         <v>1175</v>
       </c>
       <c r="B10" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>915</v>
@@ -25936,7 +26272,7 @@
         <v>1175</v>
       </c>
       <c r="B11" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>910</v>
@@ -25973,7 +26309,7 @@
         <v>1176</v>
       </c>
       <c r="B12" t="s">
-        <v>1185</v>
+        <v>1349</v>
       </c>
       <c r="C12" t="s">
         <v>1102</v>
@@ -26017,7 +26353,7 @@
         <v>1176</v>
       </c>
       <c r="B13" t="s">
-        <v>1185</v>
+        <v>1349</v>
       </c>
       <c r="C13" t="s">
         <v>1078</v>
@@ -26055,7 +26391,7 @@
         <v>1176</v>
       </c>
       <c r="B14" t="s">
-        <v>1185</v>
+        <v>1349</v>
       </c>
       <c r="C14" t="s">
         <v>1105</v>
@@ -26093,7 +26429,7 @@
         <v>1176</v>
       </c>
       <c r="B15" t="s">
-        <v>1185</v>
+        <v>1349</v>
       </c>
       <c r="C15" t="s">
         <v>1101</v>
@@ -26131,7 +26467,7 @@
         <v>1176</v>
       </c>
       <c r="B16" t="s">
-        <v>1185</v>
+        <v>1349</v>
       </c>
       <c r="C16" t="s">
         <v>1103</v>
@@ -26169,7 +26505,7 @@
         <v>1176</v>
       </c>
       <c r="B17" t="s">
-        <v>1185</v>
+        <v>1349</v>
       </c>
       <c r="C17" t="s">
         <v>1082</v>
@@ -26207,7 +26543,7 @@
         <v>1176</v>
       </c>
       <c r="B18" t="s">
-        <v>1185</v>
+        <v>1349</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>915</v>
@@ -26244,7 +26580,7 @@
         <v>1176</v>
       </c>
       <c r="B19" t="s">
-        <v>1185</v>
+        <v>1349</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>910</v>
@@ -26281,7 +26617,7 @@
         <v>1177</v>
       </c>
       <c r="B20" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C20" t="s">
         <v>1104</v>
@@ -26325,7 +26661,7 @@
         <v>1177</v>
       </c>
       <c r="B21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C21" t="s">
         <v>1078</v>
@@ -26363,7 +26699,7 @@
         <v>1177</v>
       </c>
       <c r="B22" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C22" t="s">
         <v>1106</v>
@@ -26401,7 +26737,7 @@
         <v>1177</v>
       </c>
       <c r="B23" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C23" t="s">
         <v>1107</v>
@@ -26439,7 +26775,7 @@
         <v>1177</v>
       </c>
       <c r="B24" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C24" t="s">
         <v>1080</v>
@@ -26481,7 +26817,7 @@
         <v>1177</v>
       </c>
       <c r="B25" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C25" t="s">
         <v>1170</v>
@@ -26523,7 +26859,7 @@
         <v>1177</v>
       </c>
       <c r="B26" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>915</v>
@@ -26560,7 +26896,7 @@
         <v>1177</v>
       </c>
       <c r="B27" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>910</v>
@@ -26750,10 +27086,10 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B32" t="s">
         <v>1255</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1256</v>
       </c>
       <c r="C32" t="s">
         <v>1082</v>
@@ -26794,10 +27130,10 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B33" t="s">
         <v>1255</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1256</v>
       </c>
       <c r="C33" t="s">
         <v>1084</v>
@@ -26832,10 +27168,10 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B34" t="s">
         <v>1255</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1256</v>
       </c>
       <c r="C34" t="s">
         <v>1085</v>
@@ -26866,10 +27202,10 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B35" t="s">
         <v>1255</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1256</v>
       </c>
       <c r="C35" t="s">
         <v>1119</v>
@@ -26900,10 +27236,10 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B36" t="s">
         <v>1255</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1256</v>
       </c>
       <c r="C36" t="s">
         <v>1081</v>
@@ -26938,13 +27274,13 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B37" t="s">
         <v>1255</v>
       </c>
-      <c r="B37" t="s">
-        <v>1256</v>
-      </c>
       <c r="C37" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D37" t="str">
         <f>VLOOKUP(C37,컬러명!$A$2:$H$179,2,FALSE)</f>
@@ -26972,10 +27308,10 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B38" t="s">
         <v>1255</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1256</v>
       </c>
       <c r="C38" t="s">
         <v>1172</v>
@@ -27006,10 +27342,10 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B39" t="s">
         <v>1255</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1256</v>
       </c>
       <c r="C39" t="s">
         <v>1173</v>
@@ -27040,10 +27376,10 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B40" t="s">
         <v>1255</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1256</v>
       </c>
       <c r="C40" t="s">
         <v>1171</v>
@@ -27074,10 +27410,10 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B41" t="s">
         <v>1255</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1256</v>
       </c>
       <c r="C41" t="s">
         <v>1116</v>
@@ -27108,10 +27444,10 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B42" t="s">
         <v>1255</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1256</v>
       </c>
       <c r="C42" t="s">
         <v>1117</v>
@@ -27142,10 +27478,10 @@
     </row>
     <row r="43" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B43" t="s">
         <v>1255</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1256</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>915</v>
@@ -27179,10 +27515,10 @@
     </row>
     <row r="44" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B44" t="s">
         <v>1255</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1256</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>910</v>
@@ -27219,7 +27555,7 @@
         <v>1179</v>
       </c>
       <c r="B45" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C45" t="s">
         <v>1108</v>
@@ -27263,7 +27599,7 @@
         <v>1179</v>
       </c>
       <c r="B46" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C46" t="s">
         <v>1109</v>
@@ -27301,7 +27637,7 @@
         <v>1179</v>
       </c>
       <c r="B47" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C47" t="s">
         <v>1102</v>
@@ -27339,7 +27675,7 @@
         <v>1179</v>
       </c>
       <c r="B48" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C48" t="s">
         <v>1086</v>
@@ -27377,7 +27713,7 @@
         <v>1179</v>
       </c>
       <c r="B49" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C49" t="s">
         <v>1088</v>
@@ -27415,7 +27751,7 @@
         <v>1179</v>
       </c>
       <c r="B50" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C50" t="s">
         <v>1089</v>
@@ -27453,7 +27789,7 @@
         <v>1179</v>
       </c>
       <c r="B51" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C51" t="s">
         <v>1087</v>
@@ -27491,7 +27827,7 @@
         <v>1179</v>
       </c>
       <c r="B52" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C52" t="s">
         <v>1090</v>
@@ -27529,7 +27865,7 @@
         <v>1179</v>
       </c>
       <c r="B53" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C53" t="s">
         <v>1091</v>
@@ -27567,7 +27903,7 @@
         <v>1179</v>
       </c>
       <c r="B54" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C54" t="s">
         <v>1097</v>
@@ -27605,7 +27941,7 @@
         <v>1179</v>
       </c>
       <c r="B55" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C55" t="s">
         <v>1098</v>
@@ -27643,7 +27979,7 @@
         <v>1179</v>
       </c>
       <c r="B56" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C56" t="s">
         <v>1110</v>
@@ -27685,7 +28021,7 @@
         <v>1179</v>
       </c>
       <c r="B57" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>915</v>
@@ -27722,7 +28058,7 @@
         <v>1179</v>
       </c>
       <c r="B58" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>910</v>
@@ -28257,7 +28593,7 @@
         <v>1181</v>
       </c>
       <c r="B72" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C72" t="s">
         <v>1111</v>
@@ -28301,7 +28637,7 @@
         <v>1181</v>
       </c>
       <c r="B73" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C73" t="s">
         <v>1112</v>
@@ -28339,7 +28675,7 @@
         <v>1181</v>
       </c>
       <c r="B74" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C74" t="s">
         <v>1113</v>
@@ -28377,7 +28713,7 @@
         <v>1181</v>
       </c>
       <c r="B75" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C75" t="s">
         <v>1120</v>
@@ -28415,7 +28751,7 @@
         <v>1181</v>
       </c>
       <c r="B76" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C76" t="s">
         <v>1114</v>
@@ -28453,7 +28789,7 @@
         <v>1181</v>
       </c>
       <c r="B77" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C77" t="s">
         <v>1115</v>
@@ -28491,7 +28827,7 @@
         <v>1181</v>
       </c>
       <c r="B78" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C78" s="12" t="s">
         <v>915</v>
@@ -28528,7 +28864,7 @@
         <v>1181</v>
       </c>
       <c r="B79" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C79" s="12" t="s">
         <v>910</v>
@@ -28561,18 +28897,18 @@
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C80" t="s">
-        <v>1121</v>
+      <c r="A80" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>923</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>232</v>
       </c>
       <c r="D80" t="str">
         <f>VLOOKUP(C80,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>inquiry_code</v>
+        <v>menu_code</v>
       </c>
       <c r="E80" t="str">
         <f>VLOOKUP(C80,컬러명!$A$2:$H$179,3,FALSE)</f>
@@ -28605,26 +28941,26 @@
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C81" t="s">
-        <v>1122</v>
+      <c r="A81" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>923</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>924</v>
       </c>
       <c r="D81" t="str">
         <f>VLOOKUP(C81,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>inquiry_title</v>
+        <v>menu_kind</v>
       </c>
       <c r="E81" t="str">
         <f>VLOOKUP(C81,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>varchar</v>
+        <v>char</v>
       </c>
       <c r="F81">
         <f>VLOOKUP(C81,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G81" t="str">
         <f>VLOOKUP(C81,컬러명!$A$2:$H$179,5,FALSE)</f>
@@ -28632,7 +28968,7 @@
       </c>
       <c r="I81" t="str">
         <f>VLOOKUP(C81,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>name</v>
+        <v>code</v>
       </c>
       <c r="J81" t="str">
         <f>VLOOKUP(C81,컬러명!$A$2:$H$179,8,FALSE)</f>
@@ -28643,26 +28979,26 @@
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C82" t="s">
-        <v>1123</v>
+      <c r="A82" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>923</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>925</v>
       </c>
       <c r="D82" t="str">
         <f>VLOOKUP(C82,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>inquiry_content</v>
+        <v>menu_main</v>
       </c>
       <c r="E82" t="str">
         <f>VLOOKUP(C82,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>varchar</v>
+        <v>char</v>
       </c>
       <c r="F82">
         <f>VLOOKUP(C82,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="G82" t="str">
         <f>VLOOKUP(C82,컬러명!$A$2:$H$179,5,FALSE)</f>
@@ -28670,7 +29006,7 @@
       </c>
       <c r="I82" t="str">
         <f>VLOOKUP(C82,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>name</v>
+        <v>code</v>
       </c>
       <c r="J82" t="str">
         <f>VLOOKUP(C82,컬러명!$A$2:$H$179,8,FALSE)</f>
@@ -28681,26 +29017,26 @@
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C83" t="s">
-        <v>1109</v>
+      <c r="A83" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>923</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>926</v>
       </c>
       <c r="D83" t="str">
         <f>VLOOKUP(C83,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>user_code</v>
+        <v>menu_sub</v>
       </c>
       <c r="E83" t="str">
         <f>VLOOKUP(C83,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>int</v>
-      </c>
-      <c r="F83" t="str">
+        <v>char</v>
+      </c>
+      <c r="F83">
         <f>VLOOKUP(C83,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G83" t="str">
         <f>VLOOKUP(C83,컬러명!$A$2:$H$179,5,FALSE)</f>
@@ -28718,101 +29054,103 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1239</v>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>923</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>915</v>
+        <v>927</v>
       </c>
       <c r="D84" t="str">
         <f>VLOOKUP(C84,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>created_at</v>
+        <v>menu_small</v>
       </c>
       <c r="E84" t="str">
         <f>VLOOKUP(C84,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>timestamp</v>
-      </c>
-      <c r="F84" t="str">
+        <v>char</v>
+      </c>
+      <c r="F84">
         <f>VLOOKUP(C84,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v/>
-      </c>
-      <c r="G84"/>
-      <c r="H84"/>
+        <v>2</v>
+      </c>
+      <c r="G84" t="str">
+        <f>VLOOKUP(C84,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <v>not null</v>
+      </c>
       <c r="I84" t="str">
         <f>VLOOKUP(C84,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>sysdate</v>
+        <v>code</v>
       </c>
       <c r="J84" t="str">
         <f>VLOOKUP(C84,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>create</v>
-      </c>
-      <c r="K84"/>
+        <v>no</v>
+      </c>
       <c r="L84">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1239</v>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>923</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>910</v>
+        <v>330</v>
       </c>
       <c r="D85" t="str">
         <f>VLOOKUP(C85,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>updated_at</v>
+        <v>menu_name</v>
       </c>
       <c r="E85" t="str">
         <f>VLOOKUP(C85,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>timestamp</v>
-      </c>
-      <c r="F85" t="str">
+        <v>varchar</v>
+      </c>
+      <c r="F85">
         <f>VLOOKUP(C85,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v/>
-      </c>
-      <c r="G85"/>
-      <c r="H85"/>
+        <v>100</v>
+      </c>
+      <c r="G85" t="str">
+        <f>VLOOKUP(C85,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <v>not null</v>
+      </c>
       <c r="I85" t="str">
         <f>VLOOKUP(C85,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>sysdate</v>
+        <v>name</v>
       </c>
       <c r="J85" t="str">
         <f>VLOOKUP(C85,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>update</v>
-      </c>
-      <c r="K85"/>
+        <v>no</v>
+      </c>
       <c r="L85">
         <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C86" t="s">
-        <v>1124</v>
+      <c r="A86" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>923</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>929</v>
       </c>
       <c r="D86" t="str">
         <f>VLOOKUP(C86,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>response_code</v>
+        <v>menu_type</v>
       </c>
       <c r="E86" t="str">
         <f>VLOOKUP(C86,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>int</v>
-      </c>
-      <c r="F86" t="str">
+        <v>char</v>
+      </c>
+      <c r="F86">
         <f>VLOOKUP(C86,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G86" t="str">
         <f>VLOOKUP(C86,컬러명!$A$2:$H$179,5,FALSE)</f>
@@ -28826,67 +29164,57 @@
         <f>VLOOKUP(C86,컬러명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
-      <c r="K86">
-        <v>1</v>
-      </c>
       <c r="L86">
-        <v>1</v>
-      </c>
-      <c r="M86">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C87" t="s">
-        <v>1121</v>
+      <c r="A87" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>923</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>931</v>
       </c>
       <c r="D87" t="str">
         <f>VLOOKUP(C87,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>inquiry_code</v>
+        <v>menu_icon</v>
       </c>
       <c r="E87" t="str">
         <f>VLOOKUP(C87,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>int</v>
-      </c>
-      <c r="F87" t="str">
+        <v>varchar</v>
+      </c>
+      <c r="F87">
         <f>VLOOKUP(C87,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v/>
-      </c>
-      <c r="G87" t="str">
-        <f>VLOOKUP(C87,컬러명!$A$2:$H$179,5,FALSE)</f>
-        <v>not null</v>
+        <v>100</v>
       </c>
       <c r="I87" t="str">
         <f>VLOOKUP(C87,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>code</v>
+        <v>name</v>
       </c>
       <c r="J87" t="str">
         <f>VLOOKUP(C87,컬러명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L87">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C88" t="s">
-        <v>1125</v>
+      <c r="A88" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>923</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>933</v>
       </c>
       <c r="D88" t="str">
         <f>VLOOKUP(C88,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>response_content</v>
+        <v>menu_component</v>
       </c>
       <c r="E88" t="str">
         <f>VLOOKUP(C88,컬러명!$A$2:$H$179,3,FALSE)</f>
@@ -28894,11 +29222,7 @@
       </c>
       <c r="F88">
         <f>VLOOKUP(C88,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>2000</v>
-      </c>
-      <c r="G88" t="str">
-        <f>VLOOKUP(C88,컬러명!$A$2:$H$179,5,FALSE)</f>
-        <v>not null</v>
+        <v>100</v>
       </c>
       <c r="I88" t="str">
         <f>VLOOKUP(C88,컬러명!$A$2:$H$179,7,FALSE)</f>
@@ -28909,60 +29233,56 @@
         <v>no</v>
       </c>
       <c r="L88">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C89" t="s">
-        <v>1111</v>
+      <c r="A89" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>923</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>915</v>
       </c>
       <c r="D89" t="str">
         <f>VLOOKUP(C89,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>admin_code</v>
+        <v>created_at</v>
       </c>
       <c r="E89" t="str">
         <f>VLOOKUP(C89,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>int</v>
+        <v>timestamp</v>
       </c>
       <c r="F89" t="str">
         <f>VLOOKUP(C89,컬러명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
-      <c r="G89" t="str">
-        <f>VLOOKUP(C89,컬러명!$A$2:$H$179,5,FALSE)</f>
-        <v>not null</v>
-      </c>
       <c r="I89" t="str">
         <f>VLOOKUP(C89,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>code</v>
+        <v>sysdate</v>
       </c>
       <c r="J89" t="str">
         <f>VLOOKUP(C89,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>no</v>
+        <v>create</v>
       </c>
       <c r="L89">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1188</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>923</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="D90" t="str">
         <f>VLOOKUP(C90,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>created_at</v>
+        <v>updated_at</v>
       </c>
       <c r="E90" t="str">
         <f>VLOOKUP(C90,컬러명!$A$2:$H$179,3,FALSE)</f>
@@ -28972,79 +29292,84 @@
         <f>VLOOKUP(C90,컬러명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
-      <c r="G90"/>
-      <c r="H90"/>
       <c r="I90" t="str">
         <f>VLOOKUP(C90,컬러명!$A$2:$H$179,7,FALSE)</f>
         <v>sysdate</v>
       </c>
       <c r="J90" t="str">
         <f>VLOOKUP(C90,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>create</v>
-      </c>
-      <c r="K90"/>
+        <v>update</v>
+      </c>
       <c r="L90">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1188</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91" s="12" t="s">
+        <v>936</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>937</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>910</v>
+        <v>938</v>
       </c>
       <c r="D91" t="str">
         <f>VLOOKUP(C91,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>updated_at</v>
+        <v>common_kind_code</v>
       </c>
       <c r="E91" t="str">
         <f>VLOOKUP(C91,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>timestamp</v>
-      </c>
-      <c r="F91" t="str">
+        <v>varchar</v>
+      </c>
+      <c r="F91">
         <f>VLOOKUP(C91,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v/>
-      </c>
-      <c r="G91"/>
-      <c r="H91"/>
+        <v>20</v>
+      </c>
+      <c r="G91" t="str">
+        <f>VLOOKUP(C91,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <v>not null</v>
+      </c>
       <c r="I91" t="str">
         <f>VLOOKUP(C91,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>sysdate</v>
+        <v>code</v>
       </c>
       <c r="J91" t="str">
         <f>VLOOKUP(C91,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>update</v>
-      </c>
-      <c r="K91"/>
+        <v>no</v>
+      </c>
       <c r="L91">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="12" t="s">
-        <v>236</v>
+        <v>936</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>923</v>
+        <v>937</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>232</v>
+        <v>940</v>
       </c>
       <c r="D92" t="str">
         <f>VLOOKUP(C92,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>menu_code</v>
+        <v>common_code</v>
       </c>
       <c r="E92" t="str">
         <f>VLOOKUP(C92,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>int</v>
-      </c>
-      <c r="F92" t="str">
+        <v>varchar</v>
+      </c>
+      <c r="F92">
         <f>VLOOKUP(C92,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v/>
+        <v>2</v>
+      </c>
+      <c r="G92" t="str">
+        <f>VLOOKUP(C92,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <v>not null</v>
       </c>
       <c r="I92" t="str">
         <f>VLOOKUP(C92,컬러명!$A$2:$H$179,7,FALSE)</f>
@@ -29054,139 +29379,144 @@
         <f>VLOOKUP(C92,컬러명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
-      <c r="K92">
-        <v>1</v>
-      </c>
       <c r="L92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M92">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="12" t="s">
-        <v>236</v>
+        <v>936</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>923</v>
+        <v>937</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>924</v>
+        <v>942</v>
       </c>
       <c r="D93" t="str">
         <f>VLOOKUP(C93,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>menu_kind</v>
+        <v>common_name</v>
       </c>
       <c r="E93" t="str">
         <f>VLOOKUP(C93,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>char</v>
+        <v>varchar</v>
       </c>
       <c r="F93">
         <f>VLOOKUP(C93,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>1</v>
+        <v>200</v>
+      </c>
+      <c r="G93" t="str">
+        <f>VLOOKUP(C93,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <v>not null</v>
       </c>
       <c r="I93" t="str">
         <f>VLOOKUP(C93,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>code</v>
+        <v>name</v>
       </c>
       <c r="J93" t="str">
         <f>VLOOKUP(C93,컬러명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L93">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="12" t="s">
-        <v>236</v>
+        <v>936</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>923</v>
+        <v>937</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="D94" t="str">
         <f>VLOOKUP(C94,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>menu_main</v>
+        <v>created_at</v>
       </c>
       <c r="E94" t="str">
         <f>VLOOKUP(C94,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>char</v>
-      </c>
-      <c r="F94">
+        <v>timestamp</v>
+      </c>
+      <c r="F94" t="str">
         <f>VLOOKUP(C94,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="I94" t="str">
         <f>VLOOKUP(C94,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>code</v>
+        <v>sysdate</v>
       </c>
       <c r="J94" t="str">
         <f>VLOOKUP(C94,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>no</v>
+        <v>create</v>
       </c>
       <c r="L94">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="12" t="s">
-        <v>236</v>
+        <v>936</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>923</v>
+        <v>937</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>926</v>
+        <v>910</v>
       </c>
       <c r="D95" t="str">
         <f>VLOOKUP(C95,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>menu_sub</v>
+        <v>updated_at</v>
       </c>
       <c r="E95" t="str">
         <f>VLOOKUP(C95,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>char</v>
-      </c>
-      <c r="F95">
+        <v>timestamp</v>
+      </c>
+      <c r="F95" t="str">
         <f>VLOOKUP(C95,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="I95" t="str">
         <f>VLOOKUP(C95,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>code</v>
+        <v>sysdate</v>
       </c>
       <c r="J95" t="str">
         <f>VLOOKUP(C95,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>no</v>
+        <v>update</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="12" t="s">
-        <v>236</v>
+        <v>1310</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>923</v>
+        <v>1311</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>927</v>
+        <v>1314</v>
       </c>
       <c r="D96" t="str">
         <f>VLOOKUP(C96,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>menu_small</v>
+        <v>post_code</v>
       </c>
       <c r="E96" t="str">
         <f>VLOOKUP(C96,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>char</v>
+        <v>int</v>
       </c>
       <c r="F96">
         <f>VLOOKUP(C96,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="G96" t="str">
+        <f>VLOOKUP(C96,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <v>not null</v>
       </c>
       <c r="I96" t="str">
         <f>VLOOKUP(C96,컬러명!$A$2:$H$179,7,FALSE)</f>
@@ -29196,91 +29526,105 @@
         <f>VLOOKUP(C96,컬러명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
       <c r="L96">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="12" t="s">
-        <v>236</v>
+        <v>1310</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>923</v>
+        <v>1311</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>330</v>
+        <v>1315</v>
       </c>
       <c r="D97" t="str">
         <f>VLOOKUP(C97,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>menu_name</v>
+        <v>post_type</v>
       </c>
       <c r="E97" t="str">
         <f>VLOOKUP(C97,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>varchar</v>
+        <v>char</v>
       </c>
       <c r="F97">
         <f>VLOOKUP(C97,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="G97" t="str">
+        <f>VLOOKUP(C97,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <v>not null</v>
       </c>
       <c r="I97" t="str">
         <f>VLOOKUP(C97,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>name</v>
+        <v>code</v>
       </c>
       <c r="J97" t="str">
         <f>VLOOKUP(C97,컬러명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L97">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="12" t="s">
-        <v>236</v>
+        <v>1310</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>923</v>
+        <v>1311</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>929</v>
+        <v>1316</v>
       </c>
       <c r="D98" t="str">
         <f>VLOOKUP(C98,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>menu_type</v>
+        <v>post_title</v>
       </c>
       <c r="E98" t="str">
         <f>VLOOKUP(C98,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>char</v>
+        <v>varchar</v>
       </c>
       <c r="F98">
         <f>VLOOKUP(C98,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="G98" t="str">
+        <f>VLOOKUP(C98,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <v>not null</v>
       </c>
       <c r="I98" t="str">
         <f>VLOOKUP(C98,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>code</v>
+        <v>name</v>
       </c>
       <c r="J98" t="str">
         <f>VLOOKUP(C98,컬러명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L98">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="12" t="s">
-        <v>236</v>
+        <v>1310</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>923</v>
+        <v>1311</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>931</v>
+        <v>1317</v>
       </c>
       <c r="D99" t="str">
         <f>VLOOKUP(C99,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>menu_icon</v>
+        <v>post_content</v>
       </c>
       <c r="E99" t="str">
         <f>VLOOKUP(C99,컬러명!$A$2:$H$179,3,FALSE)</f>
@@ -29288,7 +29632,11 @@
       </c>
       <c r="F99">
         <f>VLOOKUP(C99,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>100</v>
+        <v>2000</v>
+      </c>
+      <c r="G99" t="str">
+        <f>VLOOKUP(C99,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <v>not null</v>
       </c>
       <c r="I99" t="str">
         <f>VLOOKUP(C99,컬러명!$A$2:$H$179,7,FALSE)</f>
@@ -29299,30 +29647,34 @@
         <v>no</v>
       </c>
       <c r="L99">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="12" t="s">
-        <v>236</v>
+        <v>1310</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>923</v>
+        <v>1311</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>933</v>
+        <v>1318</v>
       </c>
       <c r="D100" t="str">
         <f>VLOOKUP(C100,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>menu_component</v>
+        <v>author_code</v>
       </c>
       <c r="E100" t="str">
         <f>VLOOKUP(C100,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>varchar</v>
+        <v>int</v>
       </c>
       <c r="F100">
         <f>VLOOKUP(C100,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="G100" t="str">
+        <f>VLOOKUP(C100,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <v>not null</v>
       </c>
       <c r="I100" t="str">
         <f>VLOOKUP(C100,컬러명!$A$2:$H$179,7,FALSE)</f>
@@ -29333,56 +29685,60 @@
         <v>no</v>
       </c>
       <c r="L100">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="12" t="s">
-        <v>236</v>
+        <v>1310</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>923</v>
+        <v>1311</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>915</v>
+        <v>1319</v>
       </c>
       <c r="D101" t="str">
         <f>VLOOKUP(C101,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>created_at</v>
+        <v>author_type</v>
       </c>
       <c r="E101" t="str">
         <f>VLOOKUP(C101,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>timestamp</v>
-      </c>
-      <c r="F101" t="str">
+        <v>char</v>
+      </c>
+      <c r="F101">
         <f>VLOOKUP(C101,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v/>
+        <v>2</v>
+      </c>
+      <c r="G101" t="str">
+        <f>VLOOKUP(C101,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <v>not null</v>
       </c>
       <c r="I101" t="str">
         <f>VLOOKUP(C101,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>sysdate</v>
+        <v>name</v>
       </c>
       <c r="J101" t="str">
         <f>VLOOKUP(C101,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>create</v>
+        <v>no</v>
       </c>
       <c r="L101">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="12" t="s">
-        <v>236</v>
+        <v>1310</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>923</v>
+        <v>1311</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="D102" t="str">
         <f>VLOOKUP(C102,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>updated_at</v>
+        <v>created_at</v>
       </c>
       <c r="E102" t="str">
         <f>VLOOKUP(C102,컬러명!$A$2:$H$179,3,FALSE)</f>
@@ -29398,167 +29754,179 @@
       </c>
       <c r="J102" t="str">
         <f>VLOOKUP(C102,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>update</v>
+        <v>create</v>
       </c>
       <c r="L102">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="12" t="s">
-        <v>936</v>
+        <v>1310</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>937</v>
+        <v>1311</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
       <c r="D103" t="str">
         <f>VLOOKUP(C103,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>common_kind_code</v>
+        <v>updated_at</v>
       </c>
       <c r="E103" t="str">
         <f>VLOOKUP(C103,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>varchar</v>
-      </c>
-      <c r="F103">
+        <v>timestamp</v>
+      </c>
+      <c r="F103" t="str">
         <f>VLOOKUP(C103,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>20</v>
+        <v/>
       </c>
       <c r="I103" t="str">
         <f>VLOOKUP(C103,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>code</v>
+        <v>sysdate</v>
       </c>
       <c r="J103" t="str">
         <f>VLOOKUP(C103,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>no</v>
+        <v>update</v>
       </c>
       <c r="L103">
-        <v>1</v>
-      </c>
-      <c r="M103">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="12" t="s">
-        <v>936</v>
+        <v>1312</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>937</v>
+        <v>1313</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>940</v>
+        <v>1320</v>
       </c>
       <c r="D104" t="str">
         <f>VLOOKUP(C104,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>common_code</v>
+        <v>review_code</v>
       </c>
       <c r="E104" t="str">
         <f>VLOOKUP(C104,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>varchar</v>
+        <v>int</v>
       </c>
       <c r="F104">
         <f>VLOOKUP(C104,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="G104" t="str">
+        <f>VLOOKUP(C104,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <v>not null</v>
       </c>
       <c r="I104" t="str">
         <f>VLOOKUP(C104,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>code</v>
+        <v>name</v>
       </c>
       <c r="J104" t="str">
         <f>VLOOKUP(C104,컬러명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
       <c r="L104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M104">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="12" t="s">
-        <v>936</v>
+        <v>1312</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>937</v>
+        <v>1313</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>942</v>
+        <v>1314</v>
       </c>
       <c r="D105" t="str">
         <f>VLOOKUP(C105,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>common_name</v>
+        <v>post_code</v>
       </c>
       <c r="E105" t="str">
         <f>VLOOKUP(C105,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>varchar</v>
+        <v>int</v>
       </c>
       <c r="F105">
         <f>VLOOKUP(C105,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>200</v>
+        <v>0</v>
+      </c>
+      <c r="G105" t="str">
+        <f>VLOOKUP(C105,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <v>not null</v>
       </c>
       <c r="I105" t="str">
         <f>VLOOKUP(C105,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>name</v>
+        <v>code</v>
       </c>
       <c r="J105" t="str">
         <f>VLOOKUP(C105,컬러명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L105">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="12" t="s">
-        <v>936</v>
+        <v>1312</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>937</v>
+        <v>1313</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>915</v>
+        <v>1321</v>
       </c>
       <c r="D106" t="str">
         <f>VLOOKUP(C106,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>created_at</v>
+        <v>review_rating</v>
       </c>
       <c r="E106" t="str">
         <f>VLOOKUP(C106,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>timestamp</v>
-      </c>
-      <c r="F106" t="str">
+        <v>int</v>
+      </c>
+      <c r="F106">
         <f>VLOOKUP(C106,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="G106" t="str">
+        <f>VLOOKUP(C106,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <v>not null</v>
       </c>
       <c r="I106" t="str">
         <f>VLOOKUP(C106,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>sysdate</v>
+        <v>name</v>
       </c>
       <c r="J106" t="str">
         <f>VLOOKUP(C106,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>create</v>
+        <v>no</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="12" t="s">
-        <v>936</v>
+        <v>1312</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>937</v>
+        <v>1313</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="D107" t="str">
         <f>VLOOKUP(C107,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>updated_at</v>
+        <v>created_at</v>
       </c>
       <c r="E107" t="str">
         <f>VLOOKUP(C107,컬러명!$A$2:$H$179,3,FALSE)</f>
@@ -29574,73 +29942,71 @@
       </c>
       <c r="J107" t="str">
         <f>VLOOKUP(C107,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>update</v>
+        <v>create</v>
       </c>
       <c r="L107">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="12" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>1318</v>
+        <v>910</v>
       </c>
       <c r="D108" t="str">
         <f>VLOOKUP(C108,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>post_code</v>
+        <v>updated_at</v>
       </c>
       <c r="E108" t="str">
         <f>VLOOKUP(C108,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>int</v>
-      </c>
-      <c r="F108">
+        <v>timestamp</v>
+      </c>
+      <c r="F108" t="str">
         <f>VLOOKUP(C108,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="I108" t="str">
         <f>VLOOKUP(C108,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>code</v>
+        <v>sysdate</v>
       </c>
       <c r="J108" t="str">
         <f>VLOOKUP(C108,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>no</v>
-      </c>
-      <c r="K108">
-        <v>1</v>
+        <v>update</v>
       </c>
       <c r="L108">
-        <v>1</v>
-      </c>
-      <c r="M108">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="12" t="s">
-        <v>1311</v>
+        <v>1182</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>1312</v>
+        <v>1238</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>1319</v>
+        <v>1121</v>
       </c>
       <c r="D109" t="str">
         <f>VLOOKUP(C109,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>post_type</v>
+        <v>inquiry_code</v>
       </c>
       <c r="E109" t="str">
         <f>VLOOKUP(C109,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>char</v>
-      </c>
-      <c r="F109">
+        <v>int</v>
+      </c>
+      <c r="F109" t="str">
         <f>VLOOKUP(C109,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>2</v>
+        <v/>
+      </c>
+      <c r="G109" t="str">
+        <f>VLOOKUP(C109,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <v>not null</v>
       </c>
       <c r="I109" t="str">
         <f>VLOOKUP(C109,컬러명!$A$2:$H$179,7,FALSE)</f>
@@ -29650,65 +30016,79 @@
         <f>VLOOKUP(C109,컬러명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
       <c r="L109">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="12" t="s">
-        <v>1311</v>
+        <v>1182</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>1312</v>
+        <v>1238</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="D110" t="str">
         <f>VLOOKUP(C110,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>post_title</v>
+        <v>post_code</v>
       </c>
       <c r="E110" t="str">
         <f>VLOOKUP(C110,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>varchar</v>
+        <v>int</v>
       </c>
       <c r="F110">
         <f>VLOOKUP(C110,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="G110" t="str">
+        <f>VLOOKUP(C110,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <v>not null</v>
       </c>
       <c r="I110" t="str">
         <f>VLOOKUP(C110,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>name</v>
+        <v>code</v>
       </c>
       <c r="J110" t="str">
         <f>VLOOKUP(C110,컬러명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L110">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="12" t="s">
-        <v>1311</v>
+        <v>1182</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>1312</v>
+        <v>1238</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="D111" t="str">
         <f>VLOOKUP(C111,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>post_content</v>
+        <v>inquiry_status</v>
       </c>
       <c r="E111" t="str">
         <f>VLOOKUP(C111,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>varchar</v>
+        <v>char</v>
       </c>
       <c r="F111">
         <f>VLOOKUP(C111,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>2000</v>
+        <v>2</v>
+      </c>
+      <c r="G111" t="str">
+        <f>VLOOKUP(C111,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <v>not null</v>
       </c>
       <c r="I111" t="str">
         <f>VLOOKUP(C111,컬러명!$A$2:$H$179,7,FALSE)</f>
@@ -29719,166 +30099,184 @@
         <v>no</v>
       </c>
       <c r="L111">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="12" t="s">
-        <v>1311</v>
+        <v>1182</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>1312</v>
+        <v>1238</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>1322</v>
+        <v>915</v>
       </c>
       <c r="D112" t="str">
         <f>VLOOKUP(C112,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>author_code</v>
+        <v>created_at</v>
       </c>
       <c r="E112" t="str">
         <f>VLOOKUP(C112,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>int</v>
-      </c>
-      <c r="F112">
+        <v>timestamp</v>
+      </c>
+      <c r="F112" t="str">
         <f>VLOOKUP(C112,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="I112" t="str">
         <f>VLOOKUP(C112,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>name</v>
+        <v>sysdate</v>
       </c>
       <c r="J112" t="str">
         <f>VLOOKUP(C112,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>no</v>
+        <v>create</v>
       </c>
       <c r="L112">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="12" t="s">
-        <v>1311</v>
+        <v>1182</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>1312</v>
+        <v>1238</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>1323</v>
+        <v>910</v>
       </c>
       <c r="D113" t="str">
         <f>VLOOKUP(C113,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>author_tpye</v>
+        <v>updated_at</v>
       </c>
       <c r="E113" t="str">
         <f>VLOOKUP(C113,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>char</v>
-      </c>
-      <c r="F113">
+        <v>timestamp</v>
+      </c>
+      <c r="F113" t="str">
         <f>VLOOKUP(C113,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="I113" t="str">
         <f>VLOOKUP(C113,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>name</v>
+        <v>sysdate</v>
       </c>
       <c r="J113" t="str">
         <f>VLOOKUP(C113,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>no</v>
+        <v>update</v>
       </c>
       <c r="L113">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="12" t="s">
-        <v>1311</v>
+        <v>1183</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>1312</v>
+        <v>1187</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>915</v>
+        <v>1124</v>
       </c>
       <c r="D114" t="str">
         <f>VLOOKUP(C114,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>created_at</v>
+        <v>response_code</v>
       </c>
       <c r="E114" t="str">
         <f>VLOOKUP(C114,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>timestamp</v>
+        <v>int</v>
       </c>
       <c r="F114" t="str">
         <f>VLOOKUP(C114,컬러명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
+      <c r="G114" t="str">
+        <f>VLOOKUP(C114,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <v>not null</v>
+      </c>
       <c r="I114" t="str">
         <f>VLOOKUP(C114,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>sysdate</v>
+        <v>code</v>
       </c>
       <c r="J114" t="str">
         <f>VLOOKUP(C114,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>create</v>
+        <v>no</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
       </c>
       <c r="L114">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" s="12" t="s">
-        <v>1311</v>
+        <v>1183</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>1312</v>
+        <v>1187</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>910</v>
+        <v>1314</v>
       </c>
       <c r="D115" t="str">
         <f>VLOOKUP(C115,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>updated_at</v>
+        <v>post_code</v>
       </c>
       <c r="E115" t="str">
         <f>VLOOKUP(C115,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>timestamp</v>
-      </c>
-      <c r="F115" t="str">
+        <v>int</v>
+      </c>
+      <c r="F115">
         <f>VLOOKUP(C115,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="G115" t="str">
+        <f>VLOOKUP(C115,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <v>not null</v>
       </c>
       <c r="I115" t="str">
         <f>VLOOKUP(C115,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>sysdate</v>
+        <v>code</v>
       </c>
       <c r="J115" t="str">
         <f>VLOOKUP(C115,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>update</v>
+        <v>no</v>
       </c>
       <c r="L115">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="12" t="s">
-        <v>1313</v>
+        <v>1183</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>1317</v>
+        <v>1187</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>1324</v>
+        <v>1125</v>
       </c>
       <c r="D116" t="str">
         <f>VLOOKUP(C116,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>review_code</v>
+        <v>response_content</v>
       </c>
       <c r="E116" t="str">
         <f>VLOOKUP(C116,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>int</v>
+        <v>varchar</v>
       </c>
       <c r="F116">
         <f>VLOOKUP(C116,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>0</v>
+        <v>2000</v>
+      </c>
+      <c r="G116" t="str">
+        <f>VLOOKUP(C116,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <v>not null</v>
       </c>
       <c r="I116" t="str">
         <f>VLOOKUP(C116,컬러명!$A$2:$H$179,7,FALSE)</f>
@@ -29888,29 +30286,23 @@
         <f>VLOOKUP(C116,컬러명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
-      <c r="K116">
-        <v>1</v>
-      </c>
       <c r="L116">
-        <v>1</v>
-      </c>
-      <c r="M116">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="12" t="s">
-        <v>1313</v>
+        <v>1183</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>1317</v>
+        <v>1187</v>
       </c>
       <c r="C117" s="12" t="s">
         <v>1318</v>
       </c>
       <c r="D117" t="str">
         <f>VLOOKUP(C117,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>post_code</v>
+        <v>author_code</v>
       </c>
       <c r="E117" t="str">
         <f>VLOOKUP(C117,컬러명!$A$2:$H$179,3,FALSE)</f>
@@ -29920,39 +30312,47 @@
         <f>VLOOKUP(C117,컬러명!$A$2:$H$179,4,FALSE)</f>
         <v>0</v>
       </c>
+      <c r="G117" t="str">
+        <f>VLOOKUP(C117,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <v>not null</v>
+      </c>
       <c r="I117" t="str">
         <f>VLOOKUP(C117,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>code</v>
+        <v>name</v>
       </c>
       <c r="J117" t="str">
         <f>VLOOKUP(C117,컬러명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L117">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="12" t="s">
-        <v>1313</v>
+        <v>1183</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>1317</v>
+        <v>1187</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="D118" t="str">
         <f>VLOOKUP(C118,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>review_rating</v>
+        <v>author_type</v>
       </c>
       <c r="E118" t="str">
         <f>VLOOKUP(C118,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>int</v>
+        <v>char</v>
       </c>
       <c r="F118">
         <f>VLOOKUP(C118,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G118" t="str">
+        <f>VLOOKUP(C118,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <v>not null</v>
       </c>
       <c r="I118" t="str">
         <f>VLOOKUP(C118,컬러명!$A$2:$H$179,7,FALSE)</f>
@@ -29963,15 +30363,15 @@
         <v>no</v>
       </c>
       <c r="L118">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="12" t="s">
-        <v>1313</v>
+        <v>1183</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>1317</v>
+        <v>1187</v>
       </c>
       <c r="C119" s="12" t="s">
         <v>915</v>
@@ -29997,15 +30397,15 @@
         <v>create</v>
       </c>
       <c r="L119">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="12" t="s">
-        <v>1313</v>
+        <v>1183</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>1317</v>
+        <v>1187</v>
       </c>
       <c r="C120" s="12" t="s">
         <v>910</v>
@@ -30031,437 +30431,18 @@
         <v>update</v>
       </c>
       <c r="L120">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A121" s="12" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B121" s="12" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C121" s="12" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D121" t="str">
-        <f>VLOOKUP(C121,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>inquiry_code</v>
-      </c>
-      <c r="E121" t="str">
-        <f>VLOOKUP(C121,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>int</v>
-      </c>
-      <c r="F121" t="str">
-        <f>VLOOKUP(C121,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v/>
-      </c>
-      <c r="I121" t="str">
-        <f>VLOOKUP(C121,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>code</v>
-      </c>
-      <c r="J121" t="str">
-        <f>VLOOKUP(C121,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>no</v>
-      </c>
-      <c r="K121">
-        <v>1</v>
-      </c>
-      <c r="L121">
-        <v>1</v>
-      </c>
-      <c r="M121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A122" s="12" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B122" s="12" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>1318</v>
-      </c>
-      <c r="D122" t="str">
-        <f>VLOOKUP(C122,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>post_code</v>
-      </c>
-      <c r="E122" t="str">
-        <f>VLOOKUP(C122,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>int</v>
-      </c>
-      <c r="F122">
-        <f>VLOOKUP(C122,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I122" t="str">
-        <f>VLOOKUP(C122,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>code</v>
-      </c>
-      <c r="J122" t="str">
-        <f>VLOOKUP(C122,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>no</v>
-      </c>
-      <c r="L122">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A123" s="12" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B123" s="12" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C123" s="12" t="s">
-        <v>1326</v>
-      </c>
-      <c r="D123" t="str">
-        <f>VLOOKUP(C123,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>inquiry_status</v>
-      </c>
-      <c r="E123" t="str">
-        <f>VLOOKUP(C123,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>char</v>
-      </c>
-      <c r="F123">
-        <f>VLOOKUP(C123,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="I123" t="str">
-        <f>VLOOKUP(C123,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>name</v>
-      </c>
-      <c r="J123" t="str">
-        <f>VLOOKUP(C123,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>no</v>
-      </c>
-      <c r="L123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A124" s="12" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C124" s="12" t="s">
-        <v>915</v>
-      </c>
-      <c r="D124" t="str">
-        <f>VLOOKUP(C124,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>created_at</v>
-      </c>
-      <c r="E124" t="str">
-        <f>VLOOKUP(C124,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>timestamp</v>
-      </c>
-      <c r="F124" t="str">
-        <f>VLOOKUP(C124,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v/>
-      </c>
-      <c r="I124" t="str">
-        <f>VLOOKUP(C124,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>sysdate</v>
-      </c>
-      <c r="J124" t="str">
-        <f>VLOOKUP(C124,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>create</v>
-      </c>
-      <c r="L124">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A125" s="12" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B125" s="12" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C125" s="12" t="s">
-        <v>910</v>
-      </c>
-      <c r="D125" t="str">
-        <f>VLOOKUP(C125,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>updated_at</v>
-      </c>
-      <c r="E125" t="str">
-        <f>VLOOKUP(C125,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>timestamp</v>
-      </c>
-      <c r="F125" t="str">
-        <f>VLOOKUP(C125,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v/>
-      </c>
-      <c r="I125" t="str">
-        <f>VLOOKUP(C125,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>sysdate</v>
-      </c>
-      <c r="J125" t="str">
-        <f>VLOOKUP(C125,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>update</v>
-      </c>
-      <c r="L125">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A126" s="12" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B126" s="12" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C126" s="12" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D126" t="str">
-        <f>VLOOKUP(C126,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>response_code</v>
-      </c>
-      <c r="E126" t="str">
-        <f>VLOOKUP(C126,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>int</v>
-      </c>
-      <c r="F126" t="str">
-        <f>VLOOKUP(C126,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v/>
-      </c>
-      <c r="I126" t="str">
-        <f>VLOOKUP(C126,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>code</v>
-      </c>
-      <c r="J126" t="str">
-        <f>VLOOKUP(C126,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>no</v>
-      </c>
-      <c r="K126">
-        <v>1</v>
-      </c>
-      <c r="L126">
-        <v>1</v>
-      </c>
-      <c r="M126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A127" s="12" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B127" s="12" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C127" s="12" t="s">
-        <v>1318</v>
-      </c>
-      <c r="D127" t="str">
-        <f>VLOOKUP(C127,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>post_code</v>
-      </c>
-      <c r="E127" t="str">
-        <f>VLOOKUP(C127,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>int</v>
-      </c>
-      <c r="F127">
-        <f>VLOOKUP(C127,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I127" t="str">
-        <f>VLOOKUP(C127,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>code</v>
-      </c>
-      <c r="J127" t="str">
-        <f>VLOOKUP(C127,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>no</v>
-      </c>
-      <c r="L127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A128" s="12" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B128" s="12" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C128" s="12" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D128" t="str">
-        <f>VLOOKUP(C128,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>response_content</v>
-      </c>
-      <c r="E128" t="str">
-        <f>VLOOKUP(C128,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>varchar</v>
-      </c>
-      <c r="F128">
-        <f>VLOOKUP(C128,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>2000</v>
-      </c>
-      <c r="I128" t="str">
-        <f>VLOOKUP(C128,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>name</v>
-      </c>
-      <c r="J128" t="str">
-        <f>VLOOKUP(C128,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>no</v>
-      </c>
-      <c r="L128">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A129" s="12" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B129" s="12" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C129" s="12" t="s">
-        <v>1322</v>
-      </c>
-      <c r="D129" t="str">
-        <f>VLOOKUP(C129,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>author_code</v>
-      </c>
-      <c r="E129" t="str">
-        <f>VLOOKUP(C129,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>int</v>
-      </c>
-      <c r="F129">
-        <f>VLOOKUP(C129,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I129" t="str">
-        <f>VLOOKUP(C129,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>name</v>
-      </c>
-      <c r="J129" t="str">
-        <f>VLOOKUP(C129,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>no</v>
-      </c>
-      <c r="L129">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A130" s="12" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B130" s="12" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C130" s="12" t="s">
-        <v>1323</v>
-      </c>
-      <c r="D130" t="str">
-        <f>VLOOKUP(C130,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>author_tpye</v>
-      </c>
-      <c r="E130" t="str">
-        <f>VLOOKUP(C130,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>char</v>
-      </c>
-      <c r="F130">
-        <f>VLOOKUP(C130,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="I130" t="str">
-        <f>VLOOKUP(C130,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>name</v>
-      </c>
-      <c r="J130" t="str">
-        <f>VLOOKUP(C130,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>no</v>
-      </c>
-      <c r="L130">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A131" s="12" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B131" s="12" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C131" s="12" t="s">
-        <v>915</v>
-      </c>
-      <c r="D131" t="str">
-        <f>VLOOKUP(C131,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>created_at</v>
-      </c>
-      <c r="E131" t="str">
-        <f>VLOOKUP(C131,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>timestamp</v>
-      </c>
-      <c r="F131" t="str">
-        <f>VLOOKUP(C131,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v/>
-      </c>
-      <c r="I131" t="str">
-        <f>VLOOKUP(C131,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>sysdate</v>
-      </c>
-      <c r="J131" t="str">
-        <f>VLOOKUP(C131,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>create</v>
-      </c>
-      <c r="L131">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A132" s="12" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B132" s="12" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>910</v>
-      </c>
-      <c r="D132" t="str">
-        <f>VLOOKUP(C132,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>updated_at</v>
-      </c>
-      <c r="E132" t="str">
-        <f>VLOOKUP(C132,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>timestamp</v>
-      </c>
-      <c r="F132" t="str">
-        <f>VLOOKUP(C132,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v/>
-      </c>
-      <c r="I132" t="str">
-        <f>VLOOKUP(C132,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>sysdate</v>
-      </c>
-      <c r="J132" t="str">
-        <f>VLOOKUP(C132,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>update</v>
-      </c>
-      <c r="L132">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A133" s="12"/>
-      <c r="B133" s="12"/>
-      <c r="C133" s="12"/>
+      <c r="A121" s="12"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M91"/>
+  <autoFilter ref="A1:M79"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/A렌트카_개발가이드1.0.xlsx
+++ b/doc/A렌트카_개발가이드1.0.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2567" uniqueCount="1519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="1498">
   <si>
     <t>개발환경</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -14235,9 +14235,6 @@
     <t>2. Nginx 설치</t>
   </si>
   <si>
-    <t>Nginx를 설치합니다.</t>
-  </si>
-  <si>
     <t>sudo apt install nginx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -14308,9 +14305,6 @@
     <t>Nginx가 정상적으로 설치되었는지 확인하기 위해 서버의 IP 주소를 브라우저에 입력합니다.</t>
   </si>
   <si>
-    <t>arduino</t>
-  </si>
-  <si>
     <t>http://your-server-ip</t>
   </si>
   <si>
@@ -14590,8 +14584,11 @@
     <t>2. 기본 설정 파일 수정</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">먼저 </t>
+    <t>3. 새로운 사이트 설정 (서버 블록) 추가</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">서버에서 도메인별로 Nginx 서버 블록을 설정하려면, </t>
     </r>
     <r>
       <rPr>
@@ -14601,80 +14598,18 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>/etc/nginx/nginx.conf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 파일을 확인하고 필요한 경우 수정합니다.</t>
-    </r>
-  </si>
-  <si>
-    <t>sudo nano /etc/nginx/nginx.conf</t>
-  </si>
-  <si>
-    <t>기본적으로 중요한 설정은 다음과 같습니다:</t>
-  </si>
-  <si>
-    <t>nginx</t>
-  </si>
-  <si>
-    <t>user www-data;</t>
-  </si>
-  <si>
-    <t>worker_processes auto;</t>
-  </si>
-  <si>
-    <t>pid /run/nginx.pid;</t>
-  </si>
-  <si>
-    <t>events {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    worker_connections 1024;</t>
-  </si>
-  <si>
-    <t>http {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    include /etc/nginx/mime.types;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    default_type application/octet-stream;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    sendfile on;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    tcp_nopush on;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    tcp_nodelay on;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    keepalive_timeout 65;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    types_hash_max_size 2048;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    include /etc/nginx/conf.d/*.conf;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    include /etc/nginx/sites-enabled/*;  # 이 줄은 활성화된 사이트 설정을 포함</t>
-  </si>
-  <si>
-    <t>3. 새로운 사이트 설정 (서버 블록) 추가</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">서버에서 도메인별로 Nginx 서버 블록을 설정하려면, </t>
+      <t>sites-available</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 디렉토리에 새로운 파일을 생성합니다. 예를 들어, </t>
     </r>
     <r>
       <rPr>
@@ -14684,18 +14619,110 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>sites-available</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 디렉토리에 새로운 파일을 생성합니다. 예를 들어, </t>
+      <t>example.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이라는 도메인을 설정하려면 다음 단계를 따릅니다:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. 설정 파일 생성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>sudo nano /etc/nginx/sites-available/example.com</t>
+  </si>
+  <si>
+    <r>
+      <t>2. 기본 서버 블록 설정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>다음과 같이 기본 서버 블록을 작성합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    listen 80;  # HTTP 기본 포트</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    server_name example.com www.example.com;  # 도메인 이름</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    root /var/www/example.com;  # 웹사이트의 파일이 위치한 디렉토리</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    index index.html index.htm index.nginx-debian.html;  # 기본 인덱스 파일</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        try_files $uri $uri/ =404;  # 요청한 파일이 없을 경우 404 반환</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 리버스 프록시 설정 예시 (Spring Boot 등 백엔드 서버와 연동)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        proxy_pass http://localhost:8080;  # 백엔드 서버 주소</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        proxy_set_header Host $host;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        proxy_set_header X-Real-IP $remote_addr;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        proxy_set_header X-Forwarded-For $proxy_add_x_forwarded_for;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        proxy_set_header X-Forwarded-Proto $scheme;</t>
+  </si>
+  <si>
+    <r>
+      <t>3. 사이트 활성화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">설정이 완료되면, 이 설정 파일을 </t>
     </r>
     <r>
       <rPr>
@@ -14705,23 +14732,23 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>example.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이라는 도메인을 설정하려면 다음 단계를 따릅니다:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. 설정 파일 생성</t>
+      <t>sites-enabled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 디렉토리에 심볼릭 링크로 연결하여 활성화합니다.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4. Nginx 설정 테스트 및 재시작</t>
     </r>
     <r>
       <rPr>
@@ -14736,119 +14763,6 @@
     </r>
   </si>
   <si>
-    <t>sudo nano /etc/nginx/sites-available/example.com</t>
-  </si>
-  <si>
-    <r>
-      <t>2. 기본 서버 블록 설정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <t>다음과 같이 기본 서버 블록을 작성합니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    listen 80;  # HTTP 기본 포트</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    server_name example.com www.example.com;  # 도메인 이름</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    root /var/www/example.com;  # 웹사이트의 파일이 위치한 디렉토리</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    index index.html index.htm index.nginx-debian.html;  # 기본 인덱스 파일</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        try_files $uri $uri/ =404;  # 요청한 파일이 없을 경우 404 반환</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    # 리버스 프록시 설정 예시 (Spring Boot 등 백엔드 서버와 연동)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        proxy_pass http://localhost:8080;  # 백엔드 서버 주소</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        proxy_set_header Host $host;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        proxy_set_header X-Real-IP $remote_addr;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        proxy_set_header X-Forwarded-For $proxy_add_x_forwarded_for;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        proxy_set_header X-Forwarded-Proto $scheme;</t>
-  </si>
-  <si>
-    <r>
-      <t>3. 사이트 활성화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">설정이 완료되면, 이 설정 파일을 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>sites-enabled</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 디렉토리에 심볼릭 링크로 연결하여 활성화합니다.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4. Nginx 설정 테스트 및 재시작</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
     <t>Nginx 설정에 문제가 없는지 확인한 후, 설정을 적용하기 위해 Nginx를 재시작합니다.</t>
   </si>
   <si>
@@ -14882,9 +14796,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sudo systemctl restart nginx</t>
-  </si>
-  <si>
     <t>sudo rm /etc/nginx/sites-enabled/default</t>
   </si>
   <si>
@@ -14895,22 +14806,12 @@
     <t>sudo tail -f /var/log/nginx/access.log /var/log/nginx/error.log</t>
   </si>
   <si>
-    <t>1. 로그 파일 초기화</t>
-  </si>
-  <si>
-    <t>로그 파일을 초기화하려면 파일의 내용을 비우는 명령어를 사용합니다.</t>
-  </si>
-  <si>
     <t>sudo truncate -s 0 /var/log/nginx/error.log</t>
   </si>
   <si>
     <t>sudo chmod -R 755 /home/ubuntu/arentcar/frontend</t>
   </si>
   <si>
-    <t>디렉토리 권한부여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sudo chmod o+x /home /home/ubuntu /home/ubuntu/arentcar</t>
   </si>
   <si>
@@ -14970,10 +14871,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sudo systemctl stop nginx</t>
-  </si>
-  <si>
-    <t>sudo systemctl start nginx</t>
+    <t xml:space="preserve">        location /ws/ {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        proxy_set_header Upgrade $http_upgrade;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        proxy_set_header Connection 'upgrade';</t>
+  </si>
+  <si>
+    <t>최신버전으로 업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nginx 에러 로그 초기화:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 배포 디렉토리 권한 부여</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -15374,20 +15289,20 @@
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -27873,10 +27788,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>1388</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="42"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
@@ -28877,8 +28792,8 @@
       </c>
       <c r="B108" s="18"/>
     </row>
-    <row r="109" spans="1:2" s="39" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="38" t="s">
+    <row r="109" spans="1:2" s="40" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="39" t="s">
         <v>353</v>
       </c>
     </row>
@@ -29570,167 +29485,137 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A260"/>
+  <dimension ref="A1:A186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="M256" sqref="M256"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="G193" sqref="G193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
-        <v>1485</v>
+      <c r="A1" s="38" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1394</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>1391</v>
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1396</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1483</v>
+      <c r="A6" s="3" t="s">
+        <v>1397</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1500</v>
+      <c r="A8" s="8" t="s">
+        <v>1495</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>1392</v>
+      <c r="A9" s="8" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>1399</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>1502</v>
-      </c>
+      <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>219</v>
+      <c r="A13" s="8" t="s">
+        <v>1400</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>1474</v>
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>1402</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>1475</v>
-      </c>
+      <c r="A18" s="3"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>1506</v>
+      <c r="A19" s="3" t="s">
+        <v>1403</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>1508</v>
+      <c r="A21" s="8" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1405</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>1509</v>
-      </c>
+      <c r="A24" s="3"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>1511</v>
+      <c r="A25" s="3" t="s">
+        <v>1406</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>219</v>
+      <c r="A27" s="8" t="s">
+        <v>1407</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>1514</v>
+      <c r="A29" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>1409</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>1515</v>
-      </c>
+      <c r="A32" s="3"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>1396</v>
+      <c r="A33" s="3" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>1413</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -29738,766 +29623,543 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>1397</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>1399</v>
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>1417</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="s">
-        <v>64</v>
+      <c r="A48" s="8" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>1420</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
-        <v>1401</v>
+      <c r="A53" s="3"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>1421</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>1403</v>
+      <c r="A55" s="8" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>1423</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3"/>
+      <c r="A58" s="8" t="s">
+        <v>1424</v>
+      </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>1404</v>
+      <c r="A59" s="3"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>1425</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="8" t="s">
-        <v>64</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="8" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>1406</v>
+      <c r="A63" s="4" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="8" t="s">
+        <v>1428</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3"/>
+      <c r="A66" s="4" t="s">
+        <v>1429</v>
+      </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>1407</v>
+      <c r="A67" s="8" t="s">
+        <v>1430</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="8" t="s">
-        <v>224</v>
+      <c r="A69" s="4" t="s">
+        <v>1496</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="8" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="8" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>1410</v>
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>1432</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3"/>
+      <c r="A76" t="s">
+        <v>1433</v>
+      </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>1411</v>
+      <c r="A77" s="3"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="17" t="s">
+        <v>1434</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="8" t="s">
-        <v>224</v>
+      <c r="A79" s="17" t="s">
+        <v>1435</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="8" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="3"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
-        <v>1414</v>
+      <c r="A80" s="17" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>1438</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="3"/>
+      <c r="A86" t="s">
+        <v>1463</v>
+      </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
-        <v>1415</v>
+      <c r="A87" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>1391</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="8" t="s">
-        <v>64</v>
+      <c r="A89" t="s">
+        <v>1462</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="8" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
-        <v>1417</v>
+      <c r="A91" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>1476</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="3"/>
+      <c r="A94" t="s">
+        <v>1392</v>
+      </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>280</v>
+      <c r="A95" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>1478</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="8" t="s">
-        <v>1419</v>
+      <c r="A99" t="s">
+        <v>1479</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="8" t="s">
-        <v>64</v>
+      <c r="A100" t="s">
+        <v>1453</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="8" t="s">
-        <v>1420</v>
+      <c r="A101" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>1480</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="3"/>
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>1483</v>
+      </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="s">
-        <v>1423</v>
+      <c r="A107" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>1485</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="8" t="s">
+      <c r="A109" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="3"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="4" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="8" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="8" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="8" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="3"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="4" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="8" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="3"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="4" t="s">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="8" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="4" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="8" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="4" t="s">
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="8" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A136" s="2" t="s">
-        <v>1434</v>
-      </c>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="8" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="3"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>1435</v>
+      <c r="A138" s="4" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" s="17" t="s">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="17" t="s">
-        <v>1437</v>
+      <c r="A140" s="3" t="s">
+        <v>1444</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" s="17" t="s">
-        <v>1438</v>
+      <c r="A142" s="8" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="8" t="s">
+        <v>1445</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A146" s="2" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>1441</v>
+      <c r="A144" s="8" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="8" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="8" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="8" t="s">
+        <v>1392</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="8" t="s">
-        <v>224</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" s="8" t="s">
-        <v>1442</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="8" t="s">
+        <v>1450</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>1443</v>
+      <c r="A154" s="8" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="8" t="s">
+        <v>1451</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="8" t="s">
-        <v>1444</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="8" t="s">
-        <v>64</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="8" t="s">
-        <v>1445</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="8" t="s">
-        <v>1446</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="8" t="s">
-        <v>1447</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="8" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="8" t="s">
-        <v>1448</v>
-      </c>
+      <c r="A162" s="3"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" s="8" t="s">
-        <v>1449</v>
+      <c r="A163" s="4" t="s">
+        <v>1456</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" s="8" t="s">
-        <v>197</v>
+      <c r="A164" s="3"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="3" t="s">
+        <v>1457</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="8" t="s">
-        <v>1450</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" s="8" t="s">
-        <v>1451</v>
-      </c>
+      <c r="A167" s="3"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" s="8" t="s">
-        <v>1452</v>
-      </c>
+      <c r="A168" s="4" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="3"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" s="8" t="s">
-        <v>1453</v>
+      <c r="A170" s="3" t="s">
+        <v>1459</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="8" t="s">
-        <v>1454</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="8" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" s="8" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" s="8" t="s">
-        <v>1457</v>
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="8" t="s">
+        <v>1469</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" s="8" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" s="8" t="s">
-        <v>1459</v>
+      <c r="A176" t="s">
+        <v>1468</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A180" s="2" t="s">
-        <v>1460</v>
+      <c r="A178" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>1497</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>1461</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" s="3"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" s="4" t="s">
-        <v>1462</v>
+      <c r="A183" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>1474</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" s="8" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="3"/>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" s="4" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" s="3"/>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" s="3" t="s">
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" s="8" t="s">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" s="8" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" s="8" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" s="8" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" s="8" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" s="8" t="s">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" s="8" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" s="8" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" s="8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" s="8" t="s">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" s="8" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" s="8" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" s="8" t="s">
+      <c r="A186" t="s">
         <v>1473</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" s="8" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" s="8" t="s">
-        <v>1475</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" s="8" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A214" s="8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216" s="3"/>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A217" s="4" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A218" s="3"/>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A219" s="3" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A221" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A222" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223" s="8" t="s">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224" s="3"/>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225" s="4" t="s">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226" s="3"/>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A227" s="3" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A229" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A230" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A231" s="8" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A232" s="8" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A235" s="8" t="s">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A241" s="2" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A245" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A246" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A247" s="8" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A250" s="8" t="s">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
-        <v>1489</v>
       </c>
     </row>
   </sheetData>
@@ -30510,8 +30172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A99"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -30661,7 +30323,7 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>1488</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
@@ -30718,7 +30380,7 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
-        <v>1487</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">

--- a/doc/A렌트카_개발가이드1.0.xlsx
+++ b/doc/A렌트카_개발가이드1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11595" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11595" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="개발환경" sheetId="5" r:id="rId1"/>
@@ -26,14 +26,15 @@
     <sheet name="참고(bcrypt 암호화)" sheetId="25" r:id="rId12"/>
     <sheet name="참고(MVC 패턴설명)" sheetId="7" r:id="rId13"/>
     <sheet name="참고(docker)" sheetId="21" r:id="rId14"/>
-    <sheet name="참고(mysql)" sheetId="22" r:id="rId15"/>
-    <sheet name="참고(Axios)" sheetId="27" r:id="rId16"/>
-    <sheet name="참고(xml 작성시 주의사항)" sheetId="28" r:id="rId17"/>
-    <sheet name="오류코드" sheetId="29" r:id="rId18"/>
-    <sheet name="jwt인증" sheetId="30" r:id="rId19"/>
-    <sheet name="세션인증" sheetId="32" r:id="rId20"/>
-    <sheet name="유효성검사" sheetId="31" r:id="rId21"/>
-    <sheet name="요구사항정의서" sheetId="37" r:id="rId22"/>
+    <sheet name="Sheet1" sheetId="39" r:id="rId15"/>
+    <sheet name="참고(mysql)" sheetId="22" r:id="rId16"/>
+    <sheet name="참고(Axios)" sheetId="27" r:id="rId17"/>
+    <sheet name="참고(xml 작성시 주의사항)" sheetId="28" r:id="rId18"/>
+    <sheet name="오류코드" sheetId="29" r:id="rId19"/>
+    <sheet name="jwt인증" sheetId="30" r:id="rId20"/>
+    <sheet name="세션인증" sheetId="32" r:id="rId21"/>
+    <sheet name="유효성검사" sheetId="31" r:id="rId22"/>
+    <sheet name="요구사항정의서" sheetId="37" r:id="rId23"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'테이블 컬럼명'!$A$1:$M$79</definedName>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="1498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2740" uniqueCount="1640">
   <si>
     <t>개발환경</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -14891,12 +14892,923 @@
     <t>※ 배포 디렉토리 권한 부여</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>sudo apt update</t>
+  </si>
+  <si>
+    <t>sudo apt install docker.io -y</t>
+  </si>
+  <si>
+    <t>sudo systemctl start docker</t>
+  </si>
+  <si>
+    <t>sudo usermod -aG docker $USER</t>
+  </si>
+  <si>
+    <t>docker pull nginx</t>
+  </si>
+  <si>
+    <t>Ubuntu 기준:</t>
+  </si>
+  <si>
+    <t>Docker 설치 후 로그아웃/로그인하여 권한 변경이 적용되도록 합니다.</t>
+  </si>
+  <si>
+    <t>2. Nginx Docker 이미지 다운로드</t>
+  </si>
+  <si>
+    <t>Docker Hub에서 Nginx 공식 이미지를 다운로드합니다.</t>
+  </si>
+  <si>
+    <t>이 명령어로 Nginx의 최신 이미지를 다운로드합니다. 특정 버전을 원하면 이미지 뒤에 버전을 명시하세요:</t>
+  </si>
+  <si>
+    <t>docker pull nginx:1.21</t>
+  </si>
+  <si>
+    <t>3. Docker에서 Nginx 실행</t>
+  </si>
+  <si>
+    <t>컨테이너를 생성하고 Nginx를 실행합니다.</t>
+  </si>
+  <si>
+    <t>docker run --name my-nginx -d -p 80:80 nginx</t>
+  </si>
+  <si>
+    <t>옵션 설명:</t>
+  </si>
+  <si>
+    <r>
+      <t>--name my-nginx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 컨테이너 이름 지정.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 컨테이너를 백그라운드에서 실행.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-p 80:80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 호스트의 80번 포트를 컨테이너의 80번 포트로 매핑.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>nginx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 사용할 이미지 이름.</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Nginx 컨테이너 환경 설정</t>
+  </si>
+  <si>
+    <t>4.1. 기본 웹 파일 제공</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">컨테이너의 기본 웹 폴더는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>/usr/share/nginx/html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>입니다. 로컬 디렉토리를 이 경로로 마운트하여 커스텀 파일을 제공할 수 있습니다.</t>
+    </r>
+  </si>
+  <si>
+    <t>mkdir ~/my-website</t>
+  </si>
+  <si>
+    <t>echo "&lt;h1&gt;Welcome to Docker Nginx!&lt;/h1&gt;" &gt; ~/my-website/index.html</t>
+  </si>
+  <si>
+    <t>Nginx 실행 시 로컬 폴더를 마운트:</t>
+  </si>
+  <si>
+    <t>docker run --name my-nginx -d -p 80:80 \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -v ~/my-website:/usr/share/nginx/html \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  nginx</t>
+  </si>
+  <si>
+    <t>4.2. Nginx 설정 파일 변경</t>
+  </si>
+  <si>
+    <r>
+      <t>Nginx 설정 파일(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>/etc/nginx/nginx.conf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)을 수정하려면, 커스텀 설정 파일을 컨테이너에 마운트합니다.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. 로컬에서 설정 파일 준비:</t>
+  </si>
+  <si>
+    <t>mkdir ~/nginx-config</t>
+  </si>
+  <si>
+    <t>cp /path/to/nginx.conf ~/nginx-config/nginx.conf</t>
+  </si>
+  <si>
+    <t>2. 컨테이너 실행 시 설정 파일을 마운트:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -v ~/nginx-config/nginx.conf:/etc/nginx/nginx.conf \</t>
+  </si>
+  <si>
+    <t>3. 설정 변경 후 Nginx 재시작:</t>
+  </si>
+  <si>
+    <t>docker exec my-nginx nginx -s reload</t>
+  </si>
+  <si>
+    <t>5. Nginx 컨테이너 관리</t>
+  </si>
+  <si>
+    <t>5.1. 상태 확인</t>
+  </si>
+  <si>
+    <t>실행 중인 컨테이너 확인:</t>
+  </si>
+  <si>
+    <t>5.2. 중지</t>
+  </si>
+  <si>
+    <t>컨테이너 중지:</t>
+  </si>
+  <si>
+    <t>docker stop my-nginx</t>
+  </si>
+  <si>
+    <t>5.3. 시작</t>
+  </si>
+  <si>
+    <t>중지된 컨테이너 다시 시작:</t>
+  </si>
+  <si>
+    <t>docker start my-nginx</t>
+  </si>
+  <si>
+    <t>5.4. 재시작</t>
+  </si>
+  <si>
+    <t>컨테이너 재시작:</t>
+  </si>
+  <si>
+    <t>docker restart my-nginx</t>
+  </si>
+  <si>
+    <t>5.5. 로그 확인</t>
+  </si>
+  <si>
+    <t>Nginx 컨테이너의 로그를 확인:</t>
+  </si>
+  <si>
+    <t>docker logs my-nginx</t>
+  </si>
+  <si>
+    <t>5.6. 컨테이너 삭제</t>
+  </si>
+  <si>
+    <t>컨테이너를 삭제하려면 먼저 중지한 뒤 삭제합니다.</t>
+  </si>
+  <si>
+    <t>docker rm my-nginx</t>
+  </si>
+  <si>
+    <t>6. 추가 구성</t>
+  </si>
+  <si>
+    <t>6.1. 다른 포트에서 실행</t>
+  </si>
+  <si>
+    <t>기본 80번 포트를 다른 포트로 변경하고 싶다면:</t>
+  </si>
+  <si>
+    <t>docker run --name my-nginx -d -p 8080:80 nginx</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">이후 브라우저에서 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>http://&lt;호스트 IP&gt;:8080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>으로 접근합니다.</t>
+    </r>
+  </si>
+  <si>
+    <t>6.2. 여러 컨테이너 실행</t>
+  </si>
+  <si>
+    <t>여러 개의 Nginx 컨테이너를 실행하려면 각각 다른 포트를 지정해야 합니다.</t>
+  </si>
+  <si>
+    <t>docker run --name my-nginx-1 -d -p 8081:80 nginx</t>
+  </si>
+  <si>
+    <t>docker run --name my-nginx-2 -d -p 8082:80 nginx</t>
+  </si>
+  <si>
+    <t>6.3. 리버스 프록시 설정</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">컨테이너 내에서 리버스 프록시를 구성하려면, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>nginx.conf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에 리버스 프록시 규칙을 추가한 뒤 위와 같이 마운트하여 실행합니다.</t>
+    </r>
+  </si>
+  <si>
+    <t>7. 컨테이너 상태 점검 및 유지보수</t>
+  </si>
+  <si>
+    <t>7.1. 컨테이너 접속</t>
+  </si>
+  <si>
+    <t>Nginx 컨테이너 내부에 접속:</t>
+  </si>
+  <si>
+    <t>docker exec -it my-nginx /bin/bash</t>
+  </si>
+  <si>
+    <t>7.2. 컨테이너 삭제 및 이미지 제거</t>
+  </si>
+  <si>
+    <t>컨테이너와 이미지를 삭제하려면:</t>
+  </si>
+  <si>
+    <t>docker rmi nginx</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Docker 설치 및 준비</t>
+    </r>
+  </si>
+  <si>
+    <t>1. AWS EC2에 설치된 Nginx 설정 (기존 홈페이지)</t>
+  </si>
+  <si>
+    <t>1.1. Nginx가 특정 포트를 사용하도록 설정</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EC2에 설치된 Nginx가 기본적으로 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80번 포트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">를 사용하므로, Docker에서 Nginx를 사용할 때는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>포트를 분리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해야 합니다.</t>
+    </r>
+  </si>
+  <si>
+    <t>EC2의 Nginx가 계속 80번 포트를 사용하도록 유지하려면, Docker의 Nginx는 다른 포트를 사용하도록 설정합니다.</t>
+  </si>
+  <si>
+    <t>설정 파일 편집</t>
+  </si>
+  <si>
+    <r>
+      <t>기존 Nginx 설정 파일(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>/etc/nginx/sites-available/&lt;your-config&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 또는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>/etc/nginx/nginx.conf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)을 열고 서버 블록에서 다음을 확인/수정합니다.</t>
+    </r>
+  </si>
+  <si>
+    <t>nginx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    listen 80;  # 기존 Nginx는 80번 포트를 계속 사용</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    server_name example1.com;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    root /var/www/example1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        try_files $uri $uri/ =404;</t>
+  </si>
+  <si>
+    <t>적용 및 테스트</t>
+  </si>
+  <si>
+    <t>1. 설정 저장 후 Nginx를 테스트합니다.</t>
+  </si>
+  <si>
+    <t>2. 문제가 없으면 Nginx를 재시작합니다.</t>
+  </si>
+  <si>
+    <t>sudo systemctl restart nginx</t>
+  </si>
+  <si>
+    <t>2. Docker에 설치된 Nginx 설정 (추가 홈페이지)</t>
+  </si>
+  <si>
+    <t>2.1. Docker Nginx 실행 시 포트 분리</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Docker Nginx는 기존 EC2 Nginx와 다른 포트를 사용해야 합니다. 예를 들어, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8080번 포트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를 사용할 수 있습니다.</t>
+    </r>
+  </si>
+  <si>
+    <t>Docker 명령어로 실행</t>
+  </si>
+  <si>
+    <t>docker run --name docker-nginx -d -p 8080:80 \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -v ~/docker-website:/usr/share/nginx/html \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -v ~/docker-nginx-config/nginx.conf:/etc/nginx/nginx.conf \</t>
+  </si>
+  <si>
+    <r>
+      <t>-p 8080:80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: EC2의 8080 포트를 Docker 컨테이너의 80번 포트와 연결.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-v ~/docker-website:/usr/share/nginx/html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 두 번째 홈페이지 파일을 Docker에 마운트.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-v ~/docker-nginx-config/nginx.conf:/etc/nginx/nginx.conf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Docker Nginx의 설정 파일을 지정.</t>
+    </r>
+  </si>
+  <si>
+    <t>2.2. Docker Nginx 설정 파일 작성</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Docker에서 사용할 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>nginx.conf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 파일을 작성합니다. 예를 들어, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>~/docker-nginx-config/nginx.conf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>worker_processes auto;</t>
+  </si>
+  <si>
+    <t>events {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    worker_connections 1024;</t>
+  </si>
+  <si>
+    <t>http {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    server {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        listen 80;  # Docker 컨테이너 내부 포트</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        server_name example2.com;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        root /usr/share/nginx/html;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        index index.html;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        location / {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            try_files $uri $uri/ =404;</t>
+  </si>
+  <si>
+    <t>3. 두 웹 서버 간 문제 방지 (요약)</t>
+  </si>
+  <si>
+    <t>3.1. 포트 충돌 방지</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EC2에 설치된 Nginx: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80번 포트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 유지.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Docker Nginx: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8080번 포트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 사용.</t>
+    </r>
+  </si>
+  <si>
+    <t>3.2. DNS와 도메인 설정</t>
+  </si>
+  <si>
+    <t>두 웹 서버가 각각 다른 도메인을 처리하려면 도메인 설정이 필요합니다.</t>
+  </si>
+  <si>
+    <t>1. 첫 번째 도메인 설정</t>
+  </si>
+  <si>
+    <r>
+      <t>example1.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>의 DNS A 레코드가 EC2의 퍼블릭 IP를 가리키도록 설정합니다.</t>
+    </r>
+  </si>
+  <si>
+    <t>EC2에 설치된 Nginx가 요청을 처리합니다.</t>
+  </si>
+  <si>
+    <t>2. 두 번째 도메인 설정</t>
+  </si>
+  <si>
+    <r>
+      <t>example2.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>의 DNS A 레코드도 동일한 EC2의 퍼블릭 IP를 가리킵니다.</t>
+    </r>
+  </si>
+  <si>
+    <t>두 번째 도메인 요청은 Nginx 리버스 프록시를 사용해 Docker로 전달합니다.</t>
+  </si>
+  <si>
+    <t>4. 리버스 프록시로 요청 분리 (선택 사항)</t>
+  </si>
+  <si>
+    <t>EC2의 Nginx를 리버스 프록시로 설정하여 두 번째 도메인을 Docker Nginx로 전달할 수도 있습니다.</t>
+  </si>
+  <si>
+    <t>리버스 프록시 설정 추가</t>
+  </si>
+  <si>
+    <r>
+      <t>EC2의 Nginx 설정 파일(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>/etc/nginx/sites-available/example1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 등)에 다음 내용을 추가합니다:</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    server_name example2.com;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        proxy_pass http://127.0.0.1:8080;  # Docker Nginx로 전달</t>
+  </si>
+  <si>
+    <t>1. 설정 저장 후 테스트:</t>
+  </si>
+  <si>
+    <t>2. 문제가 없으면 Nginx를 재시작합니다:</t>
+  </si>
+  <si>
+    <t>5. 최종 결과</t>
+  </si>
+  <si>
+    <r>
+      <t>1. example1.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>포트: 80.</t>
+  </si>
+  <si>
+    <r>
+      <t>2. example2.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Docker에 설치된 Nginx가 요청을 처리합니다.</t>
+  </si>
+  <si>
+    <t>EC2 Nginx가 리버스 프록시로 8080 포트의 Docker Nginx로 요청을 전달.</t>
+  </si>
+  <si>
+    <t>sudo timedatectl set-timezone Asia/Seoul</t>
+  </si>
+  <si>
+    <t>한국시간설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timedatectl</t>
+  </si>
+  <si>
+    <t>시간확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -15146,6 +16058,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -15176,7 +16097,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -15303,6 +16224,9 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -23104,8 +24028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B213"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23822,10 +24746,1176 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A360"/>
+  <sheetViews>
+    <sheetView topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="L198" sqref="L198"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="2" customFormat="1" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="17" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="17" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="17" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="8" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="8" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="8" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="8" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="3"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="8" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="8" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="8" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="8" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A112" s="6" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="8" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A120" s="6" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="8" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A128" s="6" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="8" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A136" s="6" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="8" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="8" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A149" s="6" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="8" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A159" s="6" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="8" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="8" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A168" s="6" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A176" s="6" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="8" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A184" s="6" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="8" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="8" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" s="8" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A196" s="43" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A198" s="2" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A203" s="6" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" s="8" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" s="8" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" s="8" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" s="8" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" s="8" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" s="8" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" s="8" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" s="8" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A221" s="6" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" s="3"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" s="3" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="8" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="3"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="3" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" s="8" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A237" s="43" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A239" s="2" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A243" s="6" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" s="8" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" s="8" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" s="8" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" s="8" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" s="3"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" s="17" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" s="17" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" s="17" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A258" s="2" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" s="8" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" s="8" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" s="8" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" s="8" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" s="8" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" s="8" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" s="8" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" s="8" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" s="8" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" s="8" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" s="8" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" s="8" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" s="8" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A286" s="43" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A288" s="2" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" s="3"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" s="3" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" s="3" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A295" s="2" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A299" s="6" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" s="3"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" s="17" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" s="3" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A304" s="6" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" s="3"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" s="17" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" s="3" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A311" s="43" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A315" s="6" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319" s="8" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" s="8" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322" s="8" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323" s="8" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325" s="8" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326" s="8" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327" s="8" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328" s="8" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A332" s="6" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333" s="3"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334" s="3" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" s="8" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" s="3"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" s="3" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" s="8" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A348" s="43" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349" s="3"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350" s="22" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351" s="3"/>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352" s="3"/>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" s="5" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354" s="5" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355" s="3"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356" s="22" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357" s="3"/>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358" s="3"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359" s="5" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360" s="5" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23960,7 +26050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D201"/>
   <sheetViews>
@@ -24801,7 +26891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A27"/>
   <sheetViews>
@@ -24913,7 +27003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A43"/>
   <sheetViews>
@@ -25119,485 +27209,6 @@
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>218</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A116"/>
-  <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="27" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="27" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="3"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="8" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="8" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="8" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="8" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="8" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="8" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="8" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="8" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="8" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A92" s="6" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="8" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="8" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="8" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="8" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="8" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="8" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="8" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="8" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="8" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="8" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="3"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="4" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="4" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="4" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>777</v>
       </c>
     </row>
   </sheetData>
@@ -26113,6 +27724,485 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A116"/>
+  <sheetViews>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="27" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="27" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="8" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="8" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="8" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="8" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="8" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="8" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="8" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="8" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="8" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="8" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="8" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="8" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="8" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="8" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="8" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="8" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="8" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="8" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="8" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="8" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="3"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>777</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A144"/>
   <sheetViews>
     <sheetView topLeftCell="A131" workbookViewId="0">
@@ -26719,7 +28809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A276"/>
   <sheetViews>
@@ -27773,7 +29863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
@@ -29485,10 +31575,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A186"/>
+  <dimension ref="A1:A192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="G193" sqref="G193"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="A192" sqref="A192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -30160,6 +32250,26 @@
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>1473</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>1638</v>
       </c>
     </row>
   </sheetData>
